--- a/Work Log.xlsx
+++ b/Work Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\ISIT-322-Developing-Mobile-Applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD154D99-E432-4366-88B7-42268CA06E34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A175118F-7C32-430B-A2B7-F954DB53A74C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24630" yWindow="-14355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24285" yWindow="-14010" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>In Class Lab Exercise</t>
   </si>
@@ -111,9 +111,6 @@
     <t> 5/10/2020</t>
   </si>
   <si>
-    <t>MVC - Core Sports Store App, 1</t>
-  </si>
-  <si>
     <t>Assignment Q&amp;A Week 5</t>
   </si>
   <si>
@@ -127,6 +124,12 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>MVC - Core Sports Store App, 1 - Chapter 7</t>
+  </si>
+  <si>
+    <t>MVC - Core Sports Store App, 1 - Chapter 8</t>
   </si>
 </sst>
 </file>
@@ -242,8 +245,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2884049A-816E-4C90-B00B-7E195DC02E6F}" name="Table1" displayName="Table1" ref="B2:F26" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="B2:F26" xr:uid="{5498F7FE-F847-48FF-BEDF-35E97F747022}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2884049A-816E-4C90-B00B-7E195DC02E6F}" name="Table1" displayName="Table1" ref="B2:F27" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="B2:F27" xr:uid="{5498F7FE-F847-48FF-BEDF-35E97F747022}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{ABDEFB6A-23E8-490B-8BA3-31FDB8C966B2}" name="Assignment Name" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{E1FB43F5-1B65-45C1-AB26-4B96C8816E4F}" name="Time in hrs" dataDxfId="1"/>
@@ -518,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F26"/>
+  <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,10 +547,10 @@
         <v>23</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -770,7 +773,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2">
         <v>7</v>
@@ -780,29 +783,42 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="2"/>
+      <c r="B24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="2">
+        <v>8</v>
+      </c>
       <c r="D24" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="2"/>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
       <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>31</v>
+      <c r="B26" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Work Log.xlsx
+++ b/Work Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\ISIT-322-Developing-Mobile-Applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A175118F-7C32-430B-A2B7-F954DB53A74C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DC896C-5852-4936-8842-81AA00CD0EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24285" yWindow="-14010" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>In Class Lab Exercise</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>MVC - Core Sports Store App, 1 - Chapter 8</t>
+  </si>
+  <si>
+    <t>MVC - Core Sports Store App, 1 - Chapter 9</t>
   </si>
 </sst>
 </file>
@@ -245,8 +248,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2884049A-816E-4C90-B00B-7E195DC02E6F}" name="Table1" displayName="Table1" ref="B2:F27" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="B2:F27" xr:uid="{5498F7FE-F847-48FF-BEDF-35E97F747022}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2884049A-816E-4C90-B00B-7E195DC02E6F}" name="Table1" displayName="Table1" ref="B2:F28" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="B2:F28" xr:uid="{5498F7FE-F847-48FF-BEDF-35E97F747022}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{ABDEFB6A-23E8-490B-8BA3-31FDB8C966B2}" name="Assignment Name" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{E1FB43F5-1B65-45C1-AB26-4B96C8816E4F}" name="Time in hrs" dataDxfId="1"/>
@@ -521,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F27"/>
+  <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,31 +797,46 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>28</v>
+      <c r="B25" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="2"/>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
       <c r="D26" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="1" t="s">
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
     </row>

--- a/Work Log.xlsx
+++ b/Work Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\ISIT-322-Developing-Mobile-Applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DC896C-5852-4936-8842-81AA00CD0EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C083F458-2269-4D0D-B8B8-7749ABEB7959}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24285" yWindow="-14010" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,7 +769,9 @@
       <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>27</v>
       </c>

--- a/Work Log.xlsx
+++ b/Work Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\ISIT-322-Developing-Mobile-Applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C083F458-2269-4D0D-B8B8-7749ABEB7959}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC10EE05-0E94-4364-8B6D-32779D3238BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24285" yWindow="-14010" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25935" yWindow="-14565" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>In Class Lab Exercise</t>
   </si>
@@ -133,6 +133,30 @@
   </si>
   <si>
     <t>MVC - Core Sports Store App, 1 - Chapter 9</t>
+  </si>
+  <si>
+    <t> 5/17/2020</t>
+  </si>
+  <si>
+    <t> 5/17/2021</t>
+  </si>
+  <si>
+    <t> 5/17/2022</t>
+  </si>
+  <si>
+    <t> 5/17/2023</t>
+  </si>
+  <si>
+    <t> 5/17/2024</t>
+  </si>
+  <si>
+    <t> 5/17/2025</t>
+  </si>
+  <si>
+    <t>MVC Core SportsStore App, 2 - Chapter 10</t>
+  </si>
+  <si>
+    <t>MVC Core SportsStore App, 2 - Chapter 11</t>
   </si>
 </sst>
 </file>
@@ -248,8 +272,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2884049A-816E-4C90-B00B-7E195DC02E6F}" name="Table1" displayName="Table1" ref="B2:F28" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="B2:F28" xr:uid="{5498F7FE-F847-48FF-BEDF-35E97F747022}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2884049A-816E-4C90-B00B-7E195DC02E6F}" name="Table1" displayName="Table1" ref="B2:F34" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="B2:F34" xr:uid="{5498F7FE-F847-48FF-BEDF-35E97F747022}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{ABDEFB6A-23E8-490B-8BA3-31FDB8C966B2}" name="Assignment Name" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{E1FB43F5-1B65-45C1-AB26-4B96C8816E4F}" name="Time in hrs" dataDxfId="1"/>
@@ -524,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F28"/>
+  <dimension ref="B2:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,6 +866,56 @@
         <v>27</v>
       </c>
     </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D21">
     <sortCondition ref="D3"/>

--- a/Work Log.xlsx
+++ b/Work Log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\ISIT-322-Developing-Mobile-Applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC10EE05-0E94-4364-8B6D-32779D3238BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2A58C3-0091-4015-9EB8-130BA9B99AF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25935" yWindow="-14565" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27930" yWindow="-15210" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>In Class Lab Exercise</t>
   </si>
@@ -157,6 +157,27 @@
   </si>
   <si>
     <t>MVC Core SportsStore App, 2 - Chapter 11</t>
+  </si>
+  <si>
+    <t>MVC Core SportsStore App, 2 - Chapter 12</t>
+  </si>
+  <si>
+    <t>Finished a Shopping Cart</t>
+  </si>
+  <si>
+    <t>Created Admin features</t>
+  </si>
+  <si>
+    <t>Added Admin Security</t>
+  </si>
+  <si>
+    <t>Android Development, 1</t>
+  </si>
+  <si>
+    <t>Kotlin vs Java</t>
+  </si>
+  <si>
+    <t>Assignment Q&amp;A Week 6</t>
   </si>
 </sst>
 </file>
@@ -272,8 +293,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2884049A-816E-4C90-B00B-7E195DC02E6F}" name="Table1" displayName="Table1" ref="B2:F34" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="B2:F34" xr:uid="{5498F7FE-F847-48FF-BEDF-35E97F747022}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2884049A-816E-4C90-B00B-7E195DC02E6F}" name="Table1" displayName="Table1" ref="B2:F35" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="B2:F35" xr:uid="{5498F7FE-F847-48FF-BEDF-35E97F747022}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{ABDEFB6A-23E8-490B-8BA3-31FDB8C966B2}" name="Assignment Name" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{E1FB43F5-1B65-45C1-AB26-4B96C8816E4F}" name="Time in hrs" dataDxfId="1"/>
@@ -548,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F34"/>
+  <dimension ref="B2:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +580,7 @@
     <col min="2" max="2" width="50.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -734,7 +755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>4</v>
       </c>
@@ -745,7 +766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>0</v>
       </c>
@@ -756,7 +777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>1</v>
       </c>
@@ -767,7 +788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
@@ -778,7 +799,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>2</v>
       </c>
@@ -789,7 +810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>26</v>
       </c>
@@ -800,7 +821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>33</v>
       </c>
@@ -811,7 +832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>34</v>
       </c>
@@ -822,7 +843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>35</v>
       </c>
@@ -833,7 +854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>28</v>
       </c>
@@ -844,7 +865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>29</v>
       </c>
@@ -855,7 +876,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>30</v>
       </c>
@@ -866,7 +887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>42</v>
       </c>
@@ -876,8 +897,11 @@
       <c r="D29" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>43</v>
       </c>
@@ -887,32 +911,57 @@
       <c r="D30" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="2"/>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="2"/>
+      <c r="E31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
       <c r="D32" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="C33" s="2"/>
       <c r="D33" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="C34" s="2"/>
       <c r="D34" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="1" t="s">
         <v>41</v>
       </c>
     </row>
